--- a/ADS/BG/BG_AQ.xlsx
+++ b/ADS/BG/BG_AQ.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BG/AQ</t>
+          <t>BG_AQ</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/ADS/BG/BG_AQ.xlsx
+++ b/ADS/BG/BG_AQ.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BG:1</t>
+          <t>BG:1 Reducir el desperdicio de agua ocasionado por fugas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BG:2</t>
+          <t>BG:2 Asegurar que la calidad del agua es aceptable</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -577,7 +577,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BG:3</t>
+          <t>BG:3 Reducir el coste de mantenimiento</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BG:4</t>
+          <t>BG:4 Recolección de datos fiables</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BG:5</t>
+          <t>BG:5 Datos cifrados</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BG:6</t>
+          <t>BG:6 Reducir la posibilidad de ocasionar daños físicos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BG:7</t>
+          <t>BG:7 El sistema debe estar siempre disponible</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BG:8</t>
+          <t>BG:8 Ampliación a nuevos municipios</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
